--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ETLearning\ET-EUI\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7876A7-7E6C-4120-8A16-C7F37062A216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3A2A8-B1CC-43F7-97CF-155695BD8CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="3585" windowWidth="21930" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2715" windowWidth="22275" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ETTestDB</t>
+    <t>ET1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +445,7 @@
   <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
